--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW15.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CubeA-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="CubeA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1166,7 +1166,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.251312443111351</v>
+        <v>1.25131244311135</v>
       </c>
       <c r="D15">
         <v>0.7297360846234779</v>
@@ -1178,7 +1178,7 @@
         <v>0.8661021080975179</v>
       </c>
       <c r="G15">
-        <v>1.251312443111351</v>
+        <v>1.25131244311135</v>
       </c>
       <c r="H15">
         <v>0.7297360846234779</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>0.9816919912285944</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.4592399385408076</v>
+      </c>
+      <c r="D16">
+        <v>2.343758461795015</v>
+      </c>
+      <c r="E16">
+        <v>1.226217356742332</v>
+      </c>
+      <c r="F16">
+        <v>0.8846105184970876</v>
+      </c>
+      <c r="G16">
+        <v>0.4592399385408076</v>
+      </c>
+      <c r="H16">
+        <v>2.343758461795015</v>
+      </c>
+      <c r="I16">
+        <v>0.9295949883073978</v>
+      </c>
+      <c r="J16">
+        <v>1.062061652702853</v>
+      </c>
+      <c r="K16">
+        <v>0.6296575682396935</v>
+      </c>
+      <c r="L16">
+        <v>1.396241255662679</v>
+      </c>
+      <c r="M16">
+        <v>0.4592399385408076</v>
+      </c>
+      <c r="N16">
+        <v>1.784987909268674</v>
+      </c>
+      <c r="O16">
+        <v>1.22845656889381</v>
+      </c>
+      <c r="P16">
+        <v>1.116422717560983</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.4592399385408076</v>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW15.xlsx
@@ -1169,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.25131244311135</v>
+        <v>1.251312443111351</v>
       </c>
       <c r="D15">
         <v>0.7297360846234779</v>
@@ -1181,7 +1181,7 @@
         <v>0.8661021080975179</v>
       </c>
       <c r="G15">
-        <v>1.25131244311135</v>
+        <v>1.251312443111351</v>
       </c>
       <c r="H15">
         <v>0.7297360846234779</v>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.05600400000000012</v>
+        <v>0.4592399385408076</v>
       </c>
       <c r="D10">
-        <v>4.425283999999993</v>
+        <v>2.343758461795015</v>
       </c>
       <c r="E10">
-        <v>0.7695360000000021</v>
+        <v>1.226217356742332</v>
       </c>
       <c r="F10">
-        <v>0.9609279999999999</v>
+        <v>0.8846105184970876</v>
       </c>
       <c r="G10">
-        <v>0.05600400000000012</v>
+        <v>0.4592399385408076</v>
       </c>
       <c r="H10">
-        <v>4.425283999999993</v>
+        <v>2.343758461795015</v>
       </c>
       <c r="I10">
-        <v>0.4796480000000019</v>
+        <v>0.9295949883073978</v>
       </c>
       <c r="J10">
-        <v>1.076976</v>
+        <v>1.062061652702853</v>
       </c>
       <c r="K10">
-        <v>0.2972360000000004</v>
+        <v>0.6296575682396935</v>
       </c>
       <c r="L10">
-        <v>2.089796000000003</v>
+        <v>1.396241255662679</v>
       </c>
       <c r="M10">
-        <v>0.05600400000000012</v>
+        <v>0.4592399385408076</v>
       </c>
       <c r="N10">
-        <v>2.597409999999998</v>
+        <v>1.784987909268674</v>
       </c>
       <c r="O10">
-        <v>1.552937999999999</v>
+        <v>1.22845656889381</v>
       </c>
       <c r="P10">
-        <v>1.269426</v>
+        <v>1.116422717560983</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.08887436071823981</v>
       </c>
       <c r="D11">
-        <v>6.880000000000007</v>
+        <v>2.248172070589836</v>
       </c>
       <c r="E11">
-        <v>0.01</v>
+        <v>1.250525021303518</v>
       </c>
       <c r="F11">
-        <v>1.0471</v>
+        <v>0.9736212635553039</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.08887436071823981</v>
       </c>
       <c r="H11">
-        <v>6.880000000000007</v>
+        <v>2.248172070589836</v>
       </c>
       <c r="I11">
-        <v>0.01</v>
+        <v>0.7582528072239293</v>
       </c>
       <c r="J11">
-        <v>0.7793124999999994</v>
+        <v>1.369194225814396</v>
       </c>
       <c r="K11">
-        <v>0.15</v>
+        <v>0.4434056787342174</v>
       </c>
       <c r="L11">
-        <v>2.859575000000008</v>
+        <v>1.597875905015875</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08887436071823981</v>
       </c>
       <c r="N11">
-        <v>3.445000000000003</v>
+        <v>1.749348545946677</v>
       </c>
       <c r="O11">
-        <v>1.984275000000002</v>
+        <v>1.140298179041724</v>
       </c>
       <c r="P11">
-        <v>1.466998437500002</v>
+        <v>1.091240166619414</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4149965072383993</v>
+        <v>0.08907486232426359</v>
       </c>
       <c r="D12">
-        <v>4.382975252479986</v>
+        <v>2.235208833344132</v>
       </c>
       <c r="E12">
-        <v>0.4217958011904027</v>
+        <v>1.253331735869397</v>
       </c>
       <c r="F12">
-        <v>1.024550997196797</v>
+        <v>0.9738047673636576</v>
       </c>
       <c r="G12">
-        <v>0.4149965072383993</v>
+        <v>0.08907486232426359</v>
       </c>
       <c r="H12">
-        <v>4.382975252479986</v>
+        <v>2.235208833344132</v>
       </c>
       <c r="I12">
-        <v>0.4245937657856008</v>
+        <v>0.7600415591664825</v>
       </c>
       <c r="J12">
-        <v>0.8864219228160024</v>
+        <v>1.370895911859556</v>
       </c>
       <c r="K12">
-        <v>0.4937311351808002</v>
+        <v>0.4442225355853669</v>
       </c>
       <c r="L12">
-        <v>2.090844984217598</v>
+        <v>1.594353079807956</v>
       </c>
       <c r="M12">
-        <v>0.4150318049279991</v>
+        <v>0.08907486232426359</v>
       </c>
       <c r="N12">
-        <v>2.402385526835194</v>
+        <v>1.744270284606765</v>
       </c>
       <c r="O12">
-        <v>1.561079639526396</v>
+        <v>1.137855049725363</v>
       </c>
       <c r="P12">
-        <v>1.267488795763198</v>
+        <v>1.090116660665101</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9868060623377021</v>
+        <v>0.08888207364973628</v>
       </c>
       <c r="D13">
-        <v>0.9930789243222364</v>
+        <v>2.244750961627946</v>
       </c>
       <c r="E13">
-        <v>0.9974135557467769</v>
+        <v>1.250634607553329</v>
       </c>
       <c r="F13">
-        <v>0.9986870260195182</v>
+        <v>0.9739282173878996</v>
       </c>
       <c r="G13">
-        <v>0.9868060623377021</v>
+        <v>0.08888207364973628</v>
       </c>
       <c r="H13">
-        <v>0.9930789243222364</v>
+        <v>2.244750961627946</v>
       </c>
       <c r="I13">
-        <v>0.9991679169844967</v>
+        <v>0.7584324945385025</v>
       </c>
       <c r="J13">
-        <v>0.9897679080926864</v>
+        <v>1.369775965878517</v>
       </c>
       <c r="K13">
-        <v>0.9931799029441626</v>
+        <v>0.4436605206040584</v>
       </c>
       <c r="L13">
-        <v>1.002912026506156</v>
+        <v>1.597582400438417</v>
       </c>
       <c r="M13">
-        <v>0.9868390662738894</v>
+        <v>0.08888207364973628</v>
       </c>
       <c r="N13">
-        <v>0.9952462400345067</v>
+        <v>1.747692784590637</v>
       </c>
       <c r="O13">
-        <v>0.9939963921065584</v>
+        <v>1.139548965054728</v>
       </c>
       <c r="P13">
-        <v>0.995126665369217</v>
+        <v>1.090955905209801</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.06873374379983</v>
+        <v>0.05600400000000012</v>
       </c>
       <c r="D14">
-        <v>0.9104053923201822</v>
+        <v>4.425283999999993</v>
       </c>
       <c r="E14">
-        <v>0.9826430690872173</v>
+        <v>0.7695360000000021</v>
       </c>
       <c r="F14">
-        <v>0.9811588643937925</v>
+        <v>0.9609279999999999</v>
       </c>
       <c r="G14">
-        <v>1.06873374379983</v>
+        <v>0.05600400000000012</v>
       </c>
       <c r="H14">
-        <v>0.9104053923201822</v>
+        <v>4.425283999999993</v>
       </c>
       <c r="I14">
-        <v>1.016727508926961</v>
+        <v>0.4796480000000019</v>
       </c>
       <c r="J14">
-        <v>0.9711677033595348</v>
+        <v>1.076976</v>
       </c>
       <c r="K14">
-        <v>1.03989666415187</v>
+        <v>0.2972360000000004</v>
       </c>
       <c r="L14">
-        <v>0.9215144027830765</v>
+        <v>2.089796000000003</v>
       </c>
       <c r="M14">
-        <v>1.06873374379983</v>
+        <v>0.05600400000000012</v>
       </c>
       <c r="N14">
-        <v>0.9465242307036998</v>
+        <v>2.597409999999998</v>
       </c>
       <c r="O14">
-        <v>0.9857352674002555</v>
+        <v>1.552937999999999</v>
       </c>
       <c r="P14">
-        <v>0.9865309186028081</v>
+        <v>1.269426</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.251312443111351</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.7297360846234779</v>
+        <v>6.880000000000007</v>
       </c>
       <c r="E15">
-        <v>1.132659122391168</v>
+        <v>0.01</v>
       </c>
       <c r="F15">
-        <v>0.8661021080975179</v>
+        <v>1.0471</v>
       </c>
       <c r="G15">
-        <v>1.251312443111351</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.7297360846234779</v>
+        <v>6.880000000000007</v>
       </c>
       <c r="I15">
-        <v>1.158653932353331</v>
+        <v>0.01</v>
       </c>
       <c r="J15">
-        <v>0.9233265154687598</v>
+        <v>0.7793124999999994</v>
       </c>
       <c r="K15">
-        <v>1.03462407566255</v>
+        <v>0.15</v>
       </c>
       <c r="L15">
-        <v>0.7571216481206009</v>
+        <v>2.859575000000008</v>
       </c>
       <c r="M15">
-        <v>1.25137879839358</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9311976035073228</v>
+        <v>3.445000000000003</v>
       </c>
       <c r="O15">
-        <v>0.9949524395558785</v>
+        <v>1.984275000000002</v>
       </c>
       <c r="P15">
-        <v>0.9816919912285944</v>
+        <v>1.466998437500002</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.4592399385408076</v>
+        <v>0.4149965072383993</v>
       </c>
       <c r="D16">
-        <v>2.343758461795015</v>
+        <v>4.382975252479986</v>
       </c>
       <c r="E16">
-        <v>1.226217356742332</v>
+        <v>0.4217958011904027</v>
       </c>
       <c r="F16">
-        <v>0.8846105184970876</v>
+        <v>1.024550997196797</v>
       </c>
       <c r="G16">
-        <v>0.4592399385408076</v>
+        <v>0.4149965072383993</v>
       </c>
       <c r="H16">
-        <v>2.343758461795015</v>
+        <v>4.382975252479986</v>
       </c>
       <c r="I16">
-        <v>0.9295949883073978</v>
+        <v>0.4245937657856008</v>
       </c>
       <c r="J16">
-        <v>1.062061652702853</v>
+        <v>0.8864219228160024</v>
       </c>
       <c r="K16">
-        <v>0.6296575682396935</v>
+        <v>0.4937311351808002</v>
       </c>
       <c r="L16">
-        <v>1.396241255662679</v>
+        <v>2.090844984217598</v>
       </c>
       <c r="M16">
-        <v>0.4592399385408076</v>
+        <v>0.4150318049279991</v>
       </c>
       <c r="N16">
-        <v>1.784987909268674</v>
+        <v>2.402385526835194</v>
       </c>
       <c r="O16">
-        <v>1.22845656889381</v>
+        <v>1.561079639526396</v>
       </c>
       <c r="P16">
-        <v>1.116422717560983</v>
+        <v>1.267488795763198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9868060623377021</v>
+      </c>
+      <c r="D17">
+        <v>0.9930789243222364</v>
+      </c>
+      <c r="E17">
+        <v>0.9974135557467769</v>
+      </c>
+      <c r="F17">
+        <v>0.9986870260195182</v>
+      </c>
+      <c r="G17">
+        <v>0.9868060623377021</v>
+      </c>
+      <c r="H17">
+        <v>0.9930789243222364</v>
+      </c>
+      <c r="I17">
+        <v>0.9991679169844967</v>
+      </c>
+      <c r="J17">
+        <v>0.9897679080926864</v>
+      </c>
+      <c r="K17">
+        <v>0.9931799029441626</v>
+      </c>
+      <c r="L17">
+        <v>1.002912026506156</v>
+      </c>
+      <c r="M17">
+        <v>0.9868390662738894</v>
+      </c>
+      <c r="N17">
+        <v>0.9952462400345067</v>
+      </c>
+      <c r="O17">
+        <v>0.9939963921065584</v>
+      </c>
+      <c r="P17">
+        <v>0.995126665369217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.06873374379983</v>
+      </c>
+      <c r="D18">
+        <v>0.9104053923201822</v>
+      </c>
+      <c r="E18">
+        <v>0.9826430690872173</v>
+      </c>
+      <c r="F18">
+        <v>0.9811588643937925</v>
+      </c>
+      <c r="G18">
+        <v>1.06873374379983</v>
+      </c>
+      <c r="H18">
+        <v>0.9104053923201822</v>
+      </c>
+      <c r="I18">
+        <v>1.016727508926961</v>
+      </c>
+      <c r="J18">
+        <v>0.9711677033595348</v>
+      </c>
+      <c r="K18">
+        <v>1.03989666415187</v>
+      </c>
+      <c r="L18">
+        <v>0.9215144027830765</v>
+      </c>
+      <c r="M18">
+        <v>1.06873374379983</v>
+      </c>
+      <c r="N18">
+        <v>0.9465242307036998</v>
+      </c>
+      <c r="O18">
+        <v>0.9857352674002555</v>
+      </c>
+      <c r="P18">
+        <v>0.9865309186028081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.25131244311135</v>
+      </c>
+      <c r="D19">
+        <v>0.7297360846234779</v>
+      </c>
+      <c r="E19">
+        <v>1.132659122391168</v>
+      </c>
+      <c r="F19">
+        <v>0.8661021080975179</v>
+      </c>
+      <c r="G19">
+        <v>1.25131244311135</v>
+      </c>
+      <c r="H19">
+        <v>0.7297360846234779</v>
+      </c>
+      <c r="I19">
+        <v>1.158653932353331</v>
+      </c>
+      <c r="J19">
+        <v>0.9233265154687598</v>
+      </c>
+      <c r="K19">
+        <v>1.03462407566255</v>
+      </c>
+      <c r="L19">
+        <v>0.7571216481206009</v>
+      </c>
+      <c r="M19">
+        <v>1.25137879839358</v>
+      </c>
+      <c r="N19">
+        <v>0.9311976035073228</v>
+      </c>
+      <c r="O19">
+        <v>0.9949524395558785</v>
+      </c>
+      <c r="P19">
+        <v>0.9816919912285944</v>
       </c>
     </row>
   </sheetData>
